--- a/data/comparison/promt1_prompt1.xlsx
+++ b/data/comparison/promt1_prompt1.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F0C648-11A5-4375-A04C-3AABFA0423D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A14A5F3-F22D-44F2-8C8A-0E26E8E95B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="promt1_prompt1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">promt1_prompt1!$A$2:$L$201</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1533" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="455">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -2243,11 +2246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K200" sqref="K200:K201"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2262,7 +2265,7 @@
     <col min="11" max="11" width="18.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2297,7 +2300,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2360,11 +2363,8 @@
       <c r="L3" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2398,11 +2398,8 @@
       <c r="K4" t="s">
         <v>403</v>
       </c>
-      <c r="Y4" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2436,11 +2433,8 @@
       <c r="K5" t="s">
         <v>403</v>
       </c>
-      <c r="Y5" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2472,7 +2466,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2504,7 +2498,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2536,7 +2530,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2568,7 +2562,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2597,7 +2591,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2626,7 +2620,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2661,7 +2655,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2693,7 +2687,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2722,7 +2716,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2751,7 +2745,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -6621,6 +6615,15 @@
       <c r="F140" t="s">
         <v>42</v>
       </c>
+      <c r="G140" t="s">
+        <v>403</v>
+      </c>
+      <c r="I140" t="s">
+        <v>403</v>
+      </c>
+      <c r="K140" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141">
@@ -6641,6 +6644,15 @@
       <c r="F141" t="s">
         <v>42</v>
       </c>
+      <c r="G141" t="s">
+        <v>403</v>
+      </c>
+      <c r="I141" t="s">
+        <v>403</v>
+      </c>
+      <c r="K141" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142">
@@ -6661,6 +6673,15 @@
       <c r="F142" t="s">
         <v>38</v>
       </c>
+      <c r="G142" t="s">
+        <v>403</v>
+      </c>
+      <c r="I142" t="s">
+        <v>403</v>
+      </c>
+      <c r="K142" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143">
@@ -6681,6 +6702,15 @@
       <c r="F143" t="s">
         <v>38</v>
       </c>
+      <c r="G143" t="s">
+        <v>403</v>
+      </c>
+      <c r="I143" t="s">
+        <v>403</v>
+      </c>
+      <c r="K143" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144">
@@ -6701,6 +6731,15 @@
       <c r="F144" t="s">
         <v>281</v>
       </c>
+      <c r="G144" t="s">
+        <v>403</v>
+      </c>
+      <c r="I144" t="s">
+        <v>403</v>
+      </c>
+      <c r="K144" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A145">
@@ -6721,6 +6760,15 @@
       <c r="F145" t="s">
         <v>283</v>
       </c>
+      <c r="G145" t="s">
+        <v>403</v>
+      </c>
+      <c r="I145" t="s">
+        <v>403</v>
+      </c>
+      <c r="K145" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="146" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
@@ -8464,11 +8512,6 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 G2:G1048576 K2:K1048576" xr:uid="{47797973-E456-4D3E-9B09-A4B0C0C6E546}">
-      <formula1>$Y$3:$Y$5</formula1>
-    </dataValidation>
-  </dataValidations>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{AC2072D2-8F45-43FC-9652-C1BA11310B92}"/>
     <hyperlink ref="E5" r:id="rId2" xr:uid="{7F8D1F6F-732D-44E4-A268-4E5DD94FB4AD}"/>

--- a/data/comparison/promt1_prompt1.xlsx
+++ b/data/comparison/promt1_prompt1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A14A5F3-F22D-44F2-8C8A-0E26E8E95B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A72EA9-BD5D-4AE2-86DA-90FF57BB4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="459">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1388,6 +1388,18 @@
   </si>
   <si>
     <t>search engine</t>
+  </si>
+  <si>
+    <t>Crownpeak</t>
+  </si>
+  <si>
+    <t>https://www.crownpeak.com/</t>
+  </si>
+  <si>
+    <t>BSB Service GmbH</t>
+  </si>
+  <si>
+    <t>https://www.bsb-service-gmbh.de/</t>
   </si>
 </sst>
 </file>
@@ -2249,8 +2261,8 @@
   <dimension ref="A1:L201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2323,10 +2335,10 @@
         <v>394</v>
       </c>
       <c r="I2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="L2" t="s">
         <v>8</v>
@@ -2355,10 +2367,10 @@
         <v>394</v>
       </c>
       <c r="I3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K3" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="L3" t="s">
         <v>8</v>
@@ -2707,10 +2719,16 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="H14" t="s">
+        <v>455</v>
       </c>
       <c r="I14" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="J14" t="s">
+        <v>456</v>
       </c>
       <c r="K14" t="s">
         <v>394</v>
@@ -2736,10 +2754,16 @@
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="H15" t="s">
+        <v>455</v>
       </c>
       <c r="I15" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="J15" t="s">
+        <v>456</v>
       </c>
       <c r="K15" t="s">
         <v>394</v>
@@ -4109,7 +4133,7 @@
         <v>403</v>
       </c>
       <c r="I58" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K58" t="s">
         <v>403</v>
@@ -4138,7 +4162,7 @@
         <v>403</v>
       </c>
       <c r="I59" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="K59" t="s">
         <v>403</v>
@@ -4356,7 +4380,7 @@
         <v>394</v>
       </c>
       <c r="K66" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L66" t="s">
         <v>422</v>
@@ -6674,13 +6698,13 @@
         <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I142" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K142" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.35">
@@ -6703,13 +6727,13 @@
         <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I143" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="K143" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.35">
@@ -7244,7 +7268,7 @@
         <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H160" t="s">
         <v>431</v>
@@ -7279,7 +7303,7 @@
         <v>10</v>
       </c>
       <c r="G161" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H161" t="s">
         <v>431</v>
@@ -7802,10 +7826,16 @@
         <v>42</v>
       </c>
       <c r="G178" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="H178" t="s">
+        <v>457</v>
       </c>
       <c r="I178" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="J178" t="s">
+        <v>458</v>
       </c>
       <c r="K178" t="s">
         <v>403</v>
@@ -7831,10 +7861,16 @@
         <v>42</v>
       </c>
       <c r="G179" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="H179" t="s">
+        <v>457</v>
       </c>
       <c r="I179" t="s">
-        <v>403</v>
+        <v>395</v>
+      </c>
+      <c r="J179" t="s">
+        <v>458</v>
       </c>
       <c r="K179" t="s">
         <v>403</v>
@@ -7918,13 +7954,10 @@
         <v>42</v>
       </c>
       <c r="G182" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I182" t="s">
-        <v>403</v>
-      </c>
-      <c r="J182" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="K182" t="s">
         <v>403</v>
@@ -7950,13 +7983,10 @@
         <v>19</v>
       </c>
       <c r="G183" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="I183" t="s">
-        <v>403</v>
-      </c>
-      <c r="J183" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="K183" t="s">
         <v>403</v>
@@ -8116,7 +8146,7 @@
         <v>394</v>
       </c>
       <c r="K188" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L188" t="s">
         <v>446</v>
@@ -8148,7 +8178,7 @@
         <v>394</v>
       </c>
       <c r="K189" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="L189" t="s">
         <v>446</v>

--- a/data/comparison/promt1_prompt1.xlsx
+++ b/data/comparison/promt1_prompt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryan2\Desktop\IoT\project\IoTCodes\data\comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A72EA9-BD5D-4AE2-86DA-90FF57BB4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F67F34-9FB9-47C6-8992-B212038FD97A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="4680" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="promt1_prompt1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1554" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="460">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -1400,6 +1400,9 @@
   </si>
   <si>
     <t>https://www.bsb-service-gmbh.de/</t>
+  </si>
+  <si>
+    <t>total 32</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1553,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1736,6 +1739,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1898,10 +1907,12 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2258,11 +2269,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L201"/>
+  <dimension ref="A1:L206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H186" sqref="H186"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F206" sqref="F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2328,7 +2339,7 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
@@ -2360,7 +2371,7 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G3" t="s">
@@ -2526,7 +2537,7 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G8" t="s">
@@ -2558,7 +2569,7 @@
       <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G9" t="s">
@@ -2590,7 +2601,7 @@
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
@@ -2619,7 +2630,7 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G11" t="s">
@@ -2925,7 +2936,7 @@
       <c r="E20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G20" t="s">
@@ -2963,7 +2974,7 @@
       <c r="E21" t="s">
         <v>50</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
@@ -2998,10 +3009,10 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G22" t="s">
@@ -3033,10 +3044,10 @@
       <c r="D23" t="s">
         <v>55</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G23" t="s">
@@ -3074,7 +3085,7 @@
       <c r="E24" t="s">
         <v>59</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
@@ -3106,7 +3117,7 @@
       <c r="E25" t="s">
         <v>59</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G25" t="s">
@@ -3138,7 +3149,7 @@
       <c r="E26" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G26" t="s">
@@ -3167,7 +3178,7 @@
       <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G27" t="s">
@@ -3196,7 +3207,7 @@
       <c r="E28" t="s">
         <v>66</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G28" t="s">
@@ -3234,7 +3245,7 @@
       <c r="E29" t="s">
         <v>66</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G29" t="s">
@@ -3388,7 +3399,7 @@
       <c r="E34" t="s">
         <v>78</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G34" t="s">
@@ -3417,7 +3428,7 @@
       <c r="E35" t="s">
         <v>78</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G35" t="s">
@@ -3562,7 +3573,7 @@
       <c r="E40" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
@@ -3594,7 +3605,7 @@
       <c r="E41" t="s">
         <v>89</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="3" t="s">
         <v>51</v>
       </c>
       <c r="G41" t="s">
@@ -3742,10 +3753,10 @@
       <c r="C46" t="s">
         <v>99</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="3" t="s">
         <v>101</v>
       </c>
       <c r="F46" t="s">
@@ -3774,10 +3785,10 @@
       <c r="C47" t="s">
         <v>99</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="3" t="s">
         <v>103</v>
       </c>
       <c r="F47" t="s">
@@ -3809,7 +3820,7 @@
       <c r="E48" t="s">
         <v>106</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G48" t="s">
@@ -3841,7 +3852,7 @@
       <c r="E49" t="s">
         <v>106</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G49" t="s">
@@ -4248,7 +4259,7 @@
       <c r="E62" t="s">
         <v>129</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="3" t="s">
         <v>130</v>
       </c>
       <c r="G62" t="s">
@@ -4280,7 +4291,7 @@
       <c r="E63" t="s">
         <v>129</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G63" t="s">
@@ -4370,7 +4381,7 @@
       <c r="C66" t="s">
         <v>136</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G66" t="s">
@@ -4399,7 +4410,7 @@
       <c r="D67" t="s">
         <v>137</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="3" t="s">
         <v>138</v>
       </c>
       <c r="G67" t="s">
@@ -4553,7 +4564,7 @@
       <c r="E72" t="s">
         <v>147</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G72" t="s">
@@ -4585,7 +4596,7 @@
       <c r="E73" t="s">
         <v>147</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G73" t="s">
@@ -4849,7 +4860,7 @@
       <c r="E82" t="s">
         <v>166</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G82" t="s">
@@ -4878,7 +4889,7 @@
       <c r="E83" t="s">
         <v>166</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="3" t="s">
         <v>167</v>
       </c>
       <c r="G83" t="s">
@@ -4907,7 +4918,7 @@
       <c r="E84" t="s">
         <v>170</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G84" t="s">
@@ -4936,7 +4947,7 @@
       <c r="E85" t="s">
         <v>172</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G85" t="s">
@@ -5139,7 +5150,7 @@
       <c r="E92" t="s">
         <v>185</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G92" t="s">
@@ -5171,7 +5182,7 @@
       <c r="E93" t="s">
         <v>185</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G93" t="s">
@@ -5203,7 +5214,7 @@
       <c r="E94" t="s">
         <v>188</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="3" t="s">
         <v>189</v>
       </c>
       <c r="G94" t="s">
@@ -5238,7 +5249,7 @@
       <c r="E95" t="s">
         <v>191</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G95" t="s">
@@ -5560,7 +5571,7 @@
       <c r="E106" t="s">
         <v>209</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G106" t="s">
@@ -5592,7 +5603,7 @@
       <c r="E107" t="s">
         <v>210</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="3" t="s">
         <v>211</v>
       </c>
       <c r="G107" t="s">
@@ -5688,7 +5699,7 @@
       <c r="E110" t="s">
         <v>218</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="3" t="s">
         <v>151</v>
       </c>
       <c r="G110" t="s">
@@ -5720,7 +5731,7 @@
       <c r="E111" t="s">
         <v>218</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="3" t="s">
         <v>219</v>
       </c>
       <c r="G111" t="s">
@@ -5752,7 +5763,7 @@
       <c r="E112" t="s">
         <v>222</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G112" t="s">
@@ -5781,7 +5792,7 @@
       <c r="E113" t="s">
         <v>222</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="3" t="s">
         <v>224</v>
       </c>
       <c r="G113" t="s">
@@ -6066,13 +6077,13 @@
       <c r="C122" t="s">
         <v>241</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="3" t="s">
         <v>38</v>
       </c>
       <c r="G122" t="s">
@@ -6098,13 +6109,13 @@
       <c r="C123" t="s">
         <v>241</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G123" t="s">
@@ -6380,7 +6391,7 @@
       <c r="E132" t="s">
         <v>261</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F132" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G132" t="s">
@@ -6409,7 +6420,7 @@
       <c r="E133" t="s">
         <v>261</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="3" t="s">
         <v>262</v>
       </c>
       <c r="G133" t="s">
@@ -6874,7 +6885,7 @@
       <c r="E148" t="s">
         <v>290</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F148" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G148" t="s">
@@ -6906,7 +6917,7 @@
       <c r="E149" t="s">
         <v>290</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F149" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G149" t="s">
@@ -7008,7 +7019,7 @@
       <c r="E152" t="s">
         <v>297</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F152" s="3" t="s">
         <v>42</v>
       </c>
       <c r="G152" t="s">
@@ -7040,7 +7051,7 @@
       <c r="E153" t="s">
         <v>298</v>
       </c>
-      <c r="F153" t="s">
+      <c r="F153" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G153" t="s">
@@ -7072,7 +7083,7 @@
       <c r="E154" t="s">
         <v>301</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F154" s="3" t="s">
         <v>302</v>
       </c>
       <c r="G154" t="s">
@@ -7104,7 +7115,7 @@
       <c r="E155" t="s">
         <v>303</v>
       </c>
-      <c r="F155" t="s">
+      <c r="F155" s="3" t="s">
         <v>19</v>
       </c>
       <c r="G155" t="s">
@@ -7136,7 +7147,7 @@
       <c r="E156" t="s">
         <v>306</v>
       </c>
-      <c r="F156" t="s">
+      <c r="F156" s="3" t="s">
         <v>307</v>
       </c>
       <c r="G156" t="s">
@@ -7168,7 +7179,7 @@
       <c r="E157" t="s">
         <v>306</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G157" t="s">
@@ -7334,7 +7345,7 @@
       <c r="E162" t="s">
         <v>319</v>
       </c>
-      <c r="F162" t="s">
+      <c r="F162" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G162" t="s">
@@ -7366,7 +7377,7 @@
       <c r="E163" t="s">
         <v>319</v>
       </c>
-      <c r="F163" t="s">
+      <c r="F163" s="3" t="s">
         <v>151</v>
       </c>
       <c r="G163" t="s">
@@ -7450,7 +7461,7 @@
       <c r="C166" t="s">
         <v>325</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D166" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E166" t="s">
@@ -7482,7 +7493,7 @@
       <c r="C167" t="s">
         <v>325</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D167" s="3" t="s">
         <v>328</v>
       </c>
       <c r="E167" s="1" t="s">
@@ -7523,7 +7534,7 @@
       <c r="E168" t="s">
         <v>332</v>
       </c>
-      <c r="F168" t="s">
+      <c r="F168" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G168" t="s">
@@ -7552,7 +7563,7 @@
       <c r="E169" t="s">
         <v>332</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="3" t="s">
         <v>333</v>
       </c>
       <c r="G169" t="s">
@@ -7581,7 +7592,7 @@
       <c r="E170" t="s">
         <v>336</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G170" t="s">
@@ -7616,7 +7627,7 @@
       <c r="E171" t="s">
         <v>337</v>
       </c>
-      <c r="F171" t="s">
+      <c r="F171" s="3" t="s">
         <v>151</v>
       </c>
       <c r="G171" t="s">
@@ -7764,7 +7775,7 @@
       <c r="E176" t="s">
         <v>351</v>
       </c>
-      <c r="F176" t="s">
+      <c r="F176" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G176" t="s">
@@ -7793,7 +7804,7 @@
       <c r="E177" t="s">
         <v>352</v>
       </c>
-      <c r="F177" t="s">
+      <c r="F177" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G177" t="s">
@@ -7816,10 +7827,10 @@
       <c r="C178" t="s">
         <v>353</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D178" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="E178" t="s">
+      <c r="E178" s="3" t="s">
         <v>355</v>
       </c>
       <c r="F178" t="s">
@@ -7851,10 +7862,10 @@
       <c r="C179" t="s">
         <v>353</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D179" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E179" t="s">
+      <c r="E179" s="3" t="s">
         <v>357</v>
       </c>
       <c r="F179" t="s">
@@ -8194,6 +8205,9 @@
       <c r="C190" t="s">
         <v>373</v>
       </c>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
       <c r="G190" t="s">
         <v>395</v>
       </c>
@@ -8214,13 +8228,13 @@
       <c r="C191" t="s">
         <v>373</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D191" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E191" t="s">
+      <c r="E191" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F191" s="3" t="s">
         <v>376</v>
       </c>
       <c r="G191" t="s">
@@ -8499,7 +8513,7 @@
       <c r="E200" t="s">
         <v>392</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="3" t="s">
         <v>393</v>
       </c>
       <c r="G200" t="s">
@@ -8528,7 +8542,7 @@
       <c r="E201" t="s">
         <v>392</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G201" t="s">
@@ -8539,6 +8553,22 @@
       </c>
       <c r="K201" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D203">
+        <v>5</v>
+      </c>
+      <c r="E203">
+        <v>5</v>
+      </c>
+      <c r="F203">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F206" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>
